--- a/data/G7/2.xlsx
+++ b/data/G7/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB2E8F-EDB2-AB44-84B9-F92B6D2485F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71C56BE-DA02-F448-81A2-354FAC15851D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16100" xr2:uid="{7E9D8E09-2A21-BF42-9DFB-BA0782A3F0C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,13 +47,314 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>得分+2</t>
+  </si>
+  <si>
+    <t>25-24</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>27-26</t>
+  </si>
+  <si>
+    <t>27-29</t>
+  </si>
+  <si>
+    <t>得分+3</t>
+  </si>
+  <si>
+    <t>得分+1</t>
+  </si>
+  <si>
+    <t>31-29</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>33-32</t>
+  </si>
+  <si>
+    <t>33-35</t>
+  </si>
+  <si>
+    <t>35-35</t>
+  </si>
+  <si>
+    <t>35-38</t>
+  </si>
+  <si>
+    <t>38-38</t>
+  </si>
+  <si>
+    <t>38-41</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>40-47</t>
+  </si>
+  <si>
+    <t>42-47</t>
+  </si>
+  <si>
+    <t>42-49</t>
+  </si>
+  <si>
+    <r>
+      <t>肖恩-利文斯顿</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>勒布朗-詹姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>莫里斯-威廉姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德雷蒙德-格林 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伊曼-香珀特</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伊曼-香珀特</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>斯蒂芬-库里</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>斯蒂芬-库里</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德雷蒙德-格林 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德雷蒙德-格林 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>莱昂德罗-巴博萨</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安德烈-伊格达拉</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,8 +371,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF009CFF"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -79,7 +389,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF009CFF"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -87,9 +397,18 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,31 +434,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,54 +787,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4947F-62A4-F343-A40C-8AAE0181553A}">
-  <dimension ref="B1:G3"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" ht="18">
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7.3263888888888892E-3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6.6319444444444446E-3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.3657407407407404E-3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.122685185185185E-3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.8842592592592592E-3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.7685185185185183E-3</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.2824074074074075E-3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.1203703703703706E-3</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3.1018518518518522E-3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.7662037037037034E-3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="2">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.4421296296296296E-3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.7013888888888892E-3</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="2">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="18">
+      <c r="A36" s="2">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="1">
+        <v>18</v>
+      </c>
+      <c r="B40" s="8">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="http://stat-nba.com/player/2102.html" xr:uid="{70622401-965F-424E-93D2-44BB4B25C5E8}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://stat-nba.com/player/1862.html" xr:uid="{8C3EFABA-A44E-324E-872C-A0E31A6BF0E9}"/>
+    <hyperlink ref="G6" r:id="rId3" display="http://stat-nba.com/player/2102.html" xr:uid="{8E94C429-666C-CB46-927A-60D4115677F8}"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://stat-nba.com/player/3822.html" xr:uid="{A4969728-1CCD-8549-ADC0-501D0272760D}"/>
+    <hyperlink ref="G9" r:id="rId5" display="http://stat-nba.com/player/4085.html" xr:uid="{BAD1E795-5619-9345-994E-83F0B27CFAFA}"/>
+    <hyperlink ref="C11" r:id="rId6" display="http://stat-nba.com/player/3366.html" xr:uid="{0E50DB42-41EC-AB45-A078-B93EA5154813}"/>
+    <hyperlink ref="C13" r:id="rId7" display="http://stat-nba.com/player/3366.html" xr:uid="{1B31080D-362F-E244-A06D-855DC4BA148E}"/>
+    <hyperlink ref="G14" r:id="rId8" display="http://stat-nba.com/player/526.html" xr:uid="{CE240CC7-C86A-E04B-BF8E-9C02EE58836D}"/>
+    <hyperlink ref="G16" r:id="rId9" display="http://stat-nba.com/player/526.html" xr:uid="{A56FE364-27E8-2140-AD58-F9553251A0A3}"/>
+    <hyperlink ref="C17" r:id="rId10" display="http://stat-nba.com/player/1862.html" xr:uid="{794F2A55-4F8D-124D-9BA8-09BE972BAB95}"/>
+    <hyperlink ref="G19" r:id="rId11" display="http://stat-nba.com/player/4085.html" xr:uid="{038B8331-4D00-D94B-A945-F4AED7FDFD7F}"/>
+    <hyperlink ref="C21" r:id="rId12" display="http://stat-nba.com/player/1690.html" xr:uid="{4F9A8F37-4ACA-8540-A3C3-C6DBF9EFB50F}"/>
+    <hyperlink ref="G22" r:id="rId13" display="http://stat-nba.com/player/4085.html" xr:uid="{40DC984C-FBBD-8447-924F-A4E50DCAC19C}"/>
+    <hyperlink ref="C24" r:id="rId14" display="http://stat-nba.com/player/1690.html" xr:uid="{98AA99BE-BBC3-3648-9E6A-0155B52CEE74}"/>
+    <hyperlink ref="C27" r:id="rId15" display="http://stat-nba.com/player/1690.html" xr:uid="{EF8970FE-338B-2B4C-922F-CDF1B978D63F}"/>
+    <hyperlink ref="G28" r:id="rId16" display="http://stat-nba.com/player/4085.html" xr:uid="{2DB18A11-C062-2E42-9089-4FE9B4A68F53}"/>
+    <hyperlink ref="C30" r:id="rId17" display="http://stat-nba.com/player/1862.html" xr:uid="{34B7F34D-27A0-4D4B-9AA7-959F2D2D15CC}"/>
+    <hyperlink ref="G32" r:id="rId18" display="http://stat-nba.com/player/4085.html" xr:uid="{23E05D89-1073-344A-81CB-AB320880E7C4}"/>
+    <hyperlink ref="G33" r:id="rId19" display="http://stat-nba.com/player/4085.html" xr:uid="{75CEB477-D900-3544-B245-6766FAA5FAB5}"/>
+    <hyperlink ref="G34" r:id="rId20" display="http://stat-nba.com/player/497.html" xr:uid="{0B4E36EE-5F19-C141-BB0A-7EDE524A723B}"/>
+    <hyperlink ref="C36" r:id="rId21" display="http://stat-nba.com/player/3366.html" xr:uid="{F5636649-D73A-EE43-8191-04E8178D28BE}"/>
+    <hyperlink ref="C39" r:id="rId22" display="http://stat-nba.com/player/3366.html" xr:uid="{2BA86F35-5AC9-6B44-AD89-22DDA84A4459}"/>
+    <hyperlink ref="G40" r:id="rId23" display="http://stat-nba.com/player/1701.html" xr:uid="{8D8008FD-F6FF-7543-AFE6-F3C8466C2581}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>